--- a/artfynd/A 39641-2022.xlsx
+++ b/artfynd/A 39641-2022.xlsx
@@ -1031,7 +1031,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>103774498</v>
+        <v>103774486</v>
       </c>
       <c r="B5" t="n">
         <v>96334</v>
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>477311.055729963</v>
+        <v>477309.3545251605</v>
       </c>
       <c r="R5" t="n">
-        <v>7006382.563769603</v>
+        <v>7006526.606884361</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>103774486</v>
+        <v>103774483</v>
       </c>
       <c r="B6" t="n">
         <v>96334</v>
@@ -1183,10 +1183,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>477309.3545251605</v>
+        <v>477357.1963135455</v>
       </c>
       <c r="R6" t="n">
-        <v>7006526.606884361</v>
+        <v>7006837.338617057</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>103774483</v>
+        <v>103774479</v>
       </c>
       <c r="B7" t="n">
         <v>96334</v>
@@ -1295,10 +1295,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>477357.1963135455</v>
+        <v>477231.7309710435</v>
       </c>
       <c r="R7" t="n">
-        <v>7006837.338617057</v>
+        <v>7006546.567347622</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>103774499</v>
+        <v>103774485</v>
       </c>
       <c r="B8" t="n">
         <v>96334</v>
@@ -1407,10 +1407,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>477291.981212092</v>
+        <v>477412.7779796348</v>
       </c>
       <c r="R8" t="n">
-        <v>7006370.506749988</v>
+        <v>7006704.670543466</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>103774479</v>
+        <v>103774506</v>
       </c>
       <c r="B9" t="n">
         <v>96334</v>
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>477231.7309710435</v>
+        <v>477352.8216709578</v>
       </c>
       <c r="R9" t="n">
-        <v>7006546.567347622</v>
+        <v>7006471.218645576</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2022-09-26</t>
+          <t>2022-09-25</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2022-09-26</t>
+          <t>2022-09-25</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1591,7 +1591,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>103774485</v>
+        <v>103774502</v>
       </c>
       <c r="B10" t="n">
         <v>96334</v>
@@ -1624,17 +1624,29 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Blekflon, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>477412.7779796348</v>
+        <v>477322.5699248483</v>
       </c>
       <c r="R10" t="n">
-        <v>7006704.670543466</v>
+        <v>7006734.648135644</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1661,7 +1673,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2022-09-26</t>
+          <t>2022-09-25</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1671,7 +1683,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2022-09-26</t>
+          <t>2022-09-25</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1685,6 +1697,7 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1703,7 +1716,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>103774506</v>
+        <v>103774503</v>
       </c>
       <c r="B11" t="n">
         <v>96334</v>
@@ -1743,10 +1756,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>477352.8216709578</v>
+        <v>477345.9488391592</v>
       </c>
       <c r="R11" t="n">
-        <v>7006471.218645576</v>
+        <v>7006845.092196404</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1815,7 +1828,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>103774502</v>
+        <v>103774504</v>
       </c>
       <c r="B12" t="n">
         <v>96334</v>
@@ -1850,7 +1863,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1867,10 +1880,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>477322.5699248483</v>
+        <v>477349.7108434387</v>
       </c>
       <c r="R12" t="n">
-        <v>7006734.648135644</v>
+        <v>7006865.832628248</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1940,7 +1953,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>103774503</v>
+        <v>103774490</v>
       </c>
       <c r="B13" t="n">
         <v>96334</v>
@@ -1973,17 +1986,29 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Blekflon, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>477345.9488391592</v>
+        <v>477336.3622835447</v>
       </c>
       <c r="R13" t="n">
-        <v>7006845.092196404</v>
+        <v>7006445.14660704</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2010,7 +2035,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2022-09-25</t>
+          <t>2022-09-26</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2020,7 +2045,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2022-09-25</t>
+          <t>2022-09-26</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2034,6 +2059,7 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2052,7 +2078,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>103774504</v>
+        <v>103774478</v>
       </c>
       <c r="B14" t="n">
         <v>96334</v>
@@ -2104,10 +2130,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>477349.7108434387</v>
+        <v>477206.2768361689</v>
       </c>
       <c r="R14" t="n">
-        <v>7006865.832628248</v>
+        <v>7006527.332451854</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2134,7 +2160,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2022-09-25</t>
+          <t>2022-09-26</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2144,7 +2170,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2022-09-25</t>
+          <t>2022-09-26</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2177,7 +2203,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>103774493</v>
+        <v>103774480</v>
       </c>
       <c r="B15" t="n">
         <v>96334</v>
@@ -2210,17 +2236,29 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Blekflon, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>477305.4255912767</v>
+        <v>477253.6316556742</v>
       </c>
       <c r="R15" t="n">
-        <v>7006417.821554383</v>
+        <v>7006574.857187961</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2271,6 +2309,7 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2289,7 +2328,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>103774496</v>
+        <v>103774488</v>
       </c>
       <c r="B16" t="n">
         <v>96334</v>
@@ -2322,29 +2361,17 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Blekflon, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>477325.1093272803</v>
+        <v>477349.1193879977</v>
       </c>
       <c r="R16" t="n">
-        <v>7006387.883329546</v>
+        <v>7006459.053915026</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2395,7 +2422,6 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2414,7 +2440,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>103774490</v>
+        <v>103774491</v>
       </c>
       <c r="B17" t="n">
         <v>96334</v>
@@ -2466,10 +2492,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>477336.3622835447</v>
+        <v>477336.2926103691</v>
       </c>
       <c r="R17" t="n">
-        <v>7006445.14660704</v>
+        <v>7006435.213868883</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2539,7 +2565,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>103774495</v>
+        <v>103774484</v>
       </c>
       <c r="B18" t="n">
         <v>96334</v>
@@ -2572,17 +2598,29 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Blekflon, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>477326.6050770844</v>
+        <v>477365.3617107607</v>
       </c>
       <c r="R18" t="n">
-        <v>7006407.739547486</v>
+        <v>7006841.344486794</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2633,6 +2671,7 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2651,7 +2690,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>103774478</v>
+        <v>103774501</v>
       </c>
       <c r="B19" t="n">
         <v>96334</v>
@@ -2686,7 +2725,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2703,10 +2742,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>477206.2768361689</v>
+        <v>477293.171263372</v>
       </c>
       <c r="R19" t="n">
-        <v>7006527.332451854</v>
+        <v>7006668.487961419</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2733,7 +2772,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2022-09-26</t>
+          <t>2022-09-25</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2743,7 +2782,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2022-09-26</t>
+          <t>2022-09-25</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2776,7 +2815,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>103774480</v>
+        <v>103774505</v>
       </c>
       <c r="B20" t="n">
         <v>96334</v>
@@ -2809,29 +2848,17 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Blekflon, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>477253.6316556742</v>
+        <v>477355.5975740543</v>
       </c>
       <c r="R20" t="n">
-        <v>7006574.857187961</v>
+        <v>7006480.229295511</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2858,7 +2885,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2022-09-26</t>
+          <t>2022-09-25</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2868,7 +2895,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2022-09-26</t>
+          <t>2022-09-25</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -2882,7 +2909,6 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2901,7 +2927,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>103774488</v>
+        <v>103774481</v>
       </c>
       <c r="B21" t="n">
         <v>96334</v>
@@ -2941,10 +2967,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>477349.1193879977</v>
+        <v>477331.5374803697</v>
       </c>
       <c r="R21" t="n">
-        <v>7006459.053915026</v>
+        <v>7006659.640429339</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3013,7 +3039,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>103774491</v>
+        <v>103774489</v>
       </c>
       <c r="B22" t="n">
         <v>96334</v>
@@ -3046,29 +3072,17 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Blekflon, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>477336.2926103691</v>
+        <v>477348.9927805438</v>
       </c>
       <c r="R22" t="n">
-        <v>7006435.213868883</v>
+        <v>7006440.9944461</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3119,7 +3133,6 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3138,7 +3151,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>103774484</v>
+        <v>103774487</v>
       </c>
       <c r="B23" t="n">
         <v>96334</v>
@@ -3190,10 +3203,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>477365.3617107607</v>
+        <v>477402.4166657934</v>
       </c>
       <c r="R23" t="n">
-        <v>7006841.344486794</v>
+        <v>7006516.021665679</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3263,7 +3276,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>103774494</v>
+        <v>103774492</v>
       </c>
       <c r="B24" t="n">
         <v>96334</v>
@@ -3296,29 +3309,17 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Blekflon, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>477311.65685448</v>
+        <v>477316.3618240561</v>
       </c>
       <c r="R24" t="n">
-        <v>7006403.780843604</v>
+        <v>7006429.93559789</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3369,7 +3370,6 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>103774501</v>
+        <v>103774498</v>
       </c>
       <c r="B25" t="n">
         <v>96334</v>
@@ -3421,29 +3421,17 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Blekflon, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>477293.171263372</v>
+        <v>477311.055729963</v>
       </c>
       <c r="R25" t="n">
-        <v>7006668.487961419</v>
+        <v>7006382.563769603</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3470,7 +3458,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2022-09-25</t>
+          <t>2022-09-26</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3480,7 +3468,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2022-09-25</t>
+          <t>2022-09-26</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -3494,7 +3482,6 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3513,7 +3500,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>103774505</v>
+        <v>103774499</v>
       </c>
       <c r="B26" t="n">
         <v>96334</v>
@@ -3553,10 +3540,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>477355.5975740543</v>
+        <v>477291.981212092</v>
       </c>
       <c r="R26" t="n">
-        <v>7006480.229295511</v>
+        <v>7006370.506749988</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3583,7 +3570,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2022-09-25</t>
+          <t>2022-09-26</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3593,7 +3580,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2022-09-25</t>
+          <t>2022-09-26</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3625,7 +3612,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>103774481</v>
+        <v>103774493</v>
       </c>
       <c r="B27" t="n">
         <v>96334</v>
@@ -3665,10 +3652,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>477331.5374803697</v>
+        <v>477305.4255912767</v>
       </c>
       <c r="R27" t="n">
-        <v>7006659.640429339</v>
+        <v>7006417.821554383</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3737,7 +3724,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>103774489</v>
+        <v>103774496</v>
       </c>
       <c r="B28" t="n">
         <v>96334</v>
@@ -3770,17 +3757,29 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Blekflon, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>477348.9927805438</v>
+        <v>477325.1093272803</v>
       </c>
       <c r="R28" t="n">
-        <v>7006440.9944461</v>
+        <v>7006387.883329546</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3831,6 +3830,7 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3849,7 +3849,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>103774487</v>
+        <v>103774495</v>
       </c>
       <c r="B29" t="n">
         <v>96334</v>
@@ -3882,29 +3882,17 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Blekflon, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>477402.4166657934</v>
+        <v>477326.6050770844</v>
       </c>
       <c r="R29" t="n">
-        <v>7006516.021665679</v>
+        <v>7006407.739547486</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3955,7 +3943,6 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -3974,7 +3961,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>103774492</v>
+        <v>103774494</v>
       </c>
       <c r="B30" t="n">
         <v>96334</v>
@@ -4007,17 +3994,29 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Blekflon, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>477316.3618240561</v>
+        <v>477311.65685448</v>
       </c>
       <c r="R30" t="n">
-        <v>7006429.93559789</v>
+        <v>7006403.780843604</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4068,6 +4067,7 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 39641-2022.xlsx
+++ b/artfynd/A 39641-2022.xlsx
@@ -1031,7 +1031,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>103774486</v>
+        <v>103774498</v>
       </c>
       <c r="B5" t="n">
         <v>96334</v>
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>477309.3545251605</v>
+        <v>477311.055729963</v>
       </c>
       <c r="R5" t="n">
-        <v>7006526.606884361</v>
+        <v>7006382.563769603</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>103774483</v>
+        <v>103774486</v>
       </c>
       <c r="B6" t="n">
         <v>96334</v>
@@ -1183,10 +1183,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>477357.1963135455</v>
+        <v>477309.3545251605</v>
       </c>
       <c r="R6" t="n">
-        <v>7006837.338617057</v>
+        <v>7006526.606884361</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>103774479</v>
+        <v>103774483</v>
       </c>
       <c r="B7" t="n">
         <v>96334</v>
@@ -1295,10 +1295,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>477231.7309710435</v>
+        <v>477357.1963135455</v>
       </c>
       <c r="R7" t="n">
-        <v>7006546.567347622</v>
+        <v>7006837.338617057</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>103774485</v>
+        <v>103774499</v>
       </c>
       <c r="B8" t="n">
         <v>96334</v>
@@ -1407,10 +1407,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>477412.7779796348</v>
+        <v>477291.981212092</v>
       </c>
       <c r="R8" t="n">
-        <v>7006704.670543466</v>
+        <v>7006370.506749988</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>103774506</v>
+        <v>103774479</v>
       </c>
       <c r="B9" t="n">
         <v>96334</v>
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>477352.8216709578</v>
+        <v>477231.7309710435</v>
       </c>
       <c r="R9" t="n">
-        <v>7006471.218645576</v>
+        <v>7006546.567347622</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2022-09-25</t>
+          <t>2022-09-26</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2022-09-25</t>
+          <t>2022-09-26</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1591,7 +1591,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>103774502</v>
+        <v>103774485</v>
       </c>
       <c r="B10" t="n">
         <v>96334</v>
@@ -1624,29 +1624,17 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Blekflon, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>477322.5699248483</v>
+        <v>477412.7779796348</v>
       </c>
       <c r="R10" t="n">
-        <v>7006734.648135644</v>
+        <v>7006704.670543466</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1673,7 +1661,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2022-09-25</t>
+          <t>2022-09-26</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1683,7 +1671,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2022-09-25</t>
+          <t>2022-09-26</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1697,7 +1685,6 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1716,7 +1703,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>103774503</v>
+        <v>103774506</v>
       </c>
       <c r="B11" t="n">
         <v>96334</v>
@@ -1756,10 +1743,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>477345.9488391592</v>
+        <v>477352.8216709578</v>
       </c>
       <c r="R11" t="n">
-        <v>7006845.092196404</v>
+        <v>7006471.218645576</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1828,7 +1815,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>103774504</v>
+        <v>103774502</v>
       </c>
       <c r="B12" t="n">
         <v>96334</v>
@@ -1863,7 +1850,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1880,10 +1867,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>477349.7108434387</v>
+        <v>477322.5699248483</v>
       </c>
       <c r="R12" t="n">
-        <v>7006865.832628248</v>
+        <v>7006734.648135644</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1953,7 +1940,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>103774490</v>
+        <v>103774503</v>
       </c>
       <c r="B13" t="n">
         <v>96334</v>
@@ -1986,29 +1973,17 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Blekflon, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>477336.3622835447</v>
+        <v>477345.9488391592</v>
       </c>
       <c r="R13" t="n">
-        <v>7006445.14660704</v>
+        <v>7006845.092196404</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2035,7 +2010,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2022-09-26</t>
+          <t>2022-09-25</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2045,7 +2020,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2022-09-26</t>
+          <t>2022-09-25</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2059,7 +2034,6 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2078,7 +2052,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>103774478</v>
+        <v>103774504</v>
       </c>
       <c r="B14" t="n">
         <v>96334</v>
@@ -2130,10 +2104,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>477206.2768361689</v>
+        <v>477349.7108434387</v>
       </c>
       <c r="R14" t="n">
-        <v>7006527.332451854</v>
+        <v>7006865.832628248</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2160,7 +2134,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2022-09-26</t>
+          <t>2022-09-25</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2170,7 +2144,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2022-09-26</t>
+          <t>2022-09-25</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2203,7 +2177,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>103774480</v>
+        <v>103774493</v>
       </c>
       <c r="B15" t="n">
         <v>96334</v>
@@ -2236,29 +2210,17 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Blekflon, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>477253.6316556742</v>
+        <v>477305.4255912767</v>
       </c>
       <c r="R15" t="n">
-        <v>7006574.857187961</v>
+        <v>7006417.821554383</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2309,7 +2271,6 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2328,7 +2289,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>103774488</v>
+        <v>103774496</v>
       </c>
       <c r="B16" t="n">
         <v>96334</v>
@@ -2361,17 +2322,29 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Blekflon, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>477349.1193879977</v>
+        <v>477325.1093272803</v>
       </c>
       <c r="R16" t="n">
-        <v>7006459.053915026</v>
+        <v>7006387.883329546</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2422,6 +2395,7 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2440,7 +2414,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>103774491</v>
+        <v>103774490</v>
       </c>
       <c r="B17" t="n">
         <v>96334</v>
@@ -2492,10 +2466,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>477336.2926103691</v>
+        <v>477336.3622835447</v>
       </c>
       <c r="R17" t="n">
-        <v>7006435.213868883</v>
+        <v>7006445.14660704</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2565,7 +2539,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>103774484</v>
+        <v>103774495</v>
       </c>
       <c r="B18" t="n">
         <v>96334</v>
@@ -2598,29 +2572,17 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Blekflon, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>477365.3617107607</v>
+        <v>477326.6050770844</v>
       </c>
       <c r="R18" t="n">
-        <v>7006841.344486794</v>
+        <v>7006407.739547486</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2671,7 +2633,6 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2690,7 +2651,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>103774501</v>
+        <v>103774478</v>
       </c>
       <c r="B19" t="n">
         <v>96334</v>
@@ -2725,7 +2686,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2742,10 +2703,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>477293.171263372</v>
+        <v>477206.2768361689</v>
       </c>
       <c r="R19" t="n">
-        <v>7006668.487961419</v>
+        <v>7006527.332451854</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2772,7 +2733,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2022-09-25</t>
+          <t>2022-09-26</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2782,7 +2743,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2022-09-25</t>
+          <t>2022-09-26</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2815,7 +2776,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>103774505</v>
+        <v>103774480</v>
       </c>
       <c r="B20" t="n">
         <v>96334</v>
@@ -2848,17 +2809,29 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Blekflon, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>477355.5975740543</v>
+        <v>477253.6316556742</v>
       </c>
       <c r="R20" t="n">
-        <v>7006480.229295511</v>
+        <v>7006574.857187961</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2885,7 +2858,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2022-09-25</t>
+          <t>2022-09-26</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2895,7 +2868,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2022-09-25</t>
+          <t>2022-09-26</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -2909,6 +2882,7 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2927,7 +2901,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>103774481</v>
+        <v>103774488</v>
       </c>
       <c r="B21" t="n">
         <v>96334</v>
@@ -2967,10 +2941,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>477331.5374803697</v>
+        <v>477349.1193879977</v>
       </c>
       <c r="R21" t="n">
-        <v>7006659.640429339</v>
+        <v>7006459.053915026</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3039,7 +3013,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>103774489</v>
+        <v>103774491</v>
       </c>
       <c r="B22" t="n">
         <v>96334</v>
@@ -3072,17 +3046,29 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Blekflon, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>477348.9927805438</v>
+        <v>477336.2926103691</v>
       </c>
       <c r="R22" t="n">
-        <v>7006440.9944461</v>
+        <v>7006435.213868883</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3133,6 +3119,7 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3151,7 +3138,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>103774487</v>
+        <v>103774484</v>
       </c>
       <c r="B23" t="n">
         <v>96334</v>
@@ -3203,10 +3190,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>477402.4166657934</v>
+        <v>477365.3617107607</v>
       </c>
       <c r="R23" t="n">
-        <v>7006516.021665679</v>
+        <v>7006841.344486794</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3276,7 +3263,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>103774492</v>
+        <v>103774494</v>
       </c>
       <c r="B24" t="n">
         <v>96334</v>
@@ -3309,17 +3296,29 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Blekflon, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>477316.3618240561</v>
+        <v>477311.65685448</v>
       </c>
       <c r="R24" t="n">
-        <v>7006429.93559789</v>
+        <v>7006403.780843604</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3370,6 +3369,7 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>103774498</v>
+        <v>103774501</v>
       </c>
       <c r="B25" t="n">
         <v>96334</v>
@@ -3421,17 +3421,29 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Blekflon, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>477311.055729963</v>
+        <v>477293.171263372</v>
       </c>
       <c r="R25" t="n">
-        <v>7006382.563769603</v>
+        <v>7006668.487961419</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3458,7 +3470,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2022-09-26</t>
+          <t>2022-09-25</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3468,7 +3480,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2022-09-26</t>
+          <t>2022-09-25</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -3482,6 +3494,7 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3500,7 +3513,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>103774499</v>
+        <v>103774505</v>
       </c>
       <c r="B26" t="n">
         <v>96334</v>
@@ -3540,10 +3553,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>477291.981212092</v>
+        <v>477355.5975740543</v>
       </c>
       <c r="R26" t="n">
-        <v>7006370.506749988</v>
+        <v>7006480.229295511</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3570,7 +3583,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2022-09-26</t>
+          <t>2022-09-25</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3580,7 +3593,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2022-09-26</t>
+          <t>2022-09-25</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3612,7 +3625,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>103774493</v>
+        <v>103774481</v>
       </c>
       <c r="B27" t="n">
         <v>96334</v>
@@ -3652,10 +3665,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>477305.4255912767</v>
+        <v>477331.5374803697</v>
       </c>
       <c r="R27" t="n">
-        <v>7006417.821554383</v>
+        <v>7006659.640429339</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3724,7 +3737,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>103774496</v>
+        <v>103774489</v>
       </c>
       <c r="B28" t="n">
         <v>96334</v>
@@ -3757,29 +3770,17 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Blekflon, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>477325.1093272803</v>
+        <v>477348.9927805438</v>
       </c>
       <c r="R28" t="n">
-        <v>7006387.883329546</v>
+        <v>7006440.9944461</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3830,7 +3831,6 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3849,7 +3849,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>103774495</v>
+        <v>103774487</v>
       </c>
       <c r="B29" t="n">
         <v>96334</v>
@@ -3882,17 +3882,29 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Blekflon, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>477326.6050770844</v>
+        <v>477402.4166657934</v>
       </c>
       <c r="R29" t="n">
-        <v>7006407.739547486</v>
+        <v>7006516.021665679</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3943,6 +3955,7 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -3961,7 +3974,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>103774494</v>
+        <v>103774492</v>
       </c>
       <c r="B30" t="n">
         <v>96334</v>
@@ -3994,29 +4007,17 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Blekflon, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>477311.65685448</v>
+        <v>477316.3618240561</v>
       </c>
       <c r="R30" t="n">
-        <v>7006403.780843604</v>
+        <v>7006429.93559789</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4067,7 +4068,6 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
